--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82CDFB6-2DA7-4A9C-8A4B-0224A951C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F55BEB-9DA5-4AD2-9E2F-F614E1D4C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>FamilyLevel</t>
+  </si>
+  <si>
+    <t>CountryId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效忠国家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,19 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +446,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,8 +463,11 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -461,8 +480,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -475,8 +497,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -489,8 +514,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -503,8 +531,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -517,8 +548,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -530,6 +564,9 @@
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F55BEB-9DA5-4AD2-9E2F-F614E1D4C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C8326C-33A2-42FB-8150-C47BCB61B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="5460" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>效忠国家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族领袖编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyLeaderId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,9 +443,10 @@
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +462,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -466,8 +482,11 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,8 +502,11 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -500,8 +522,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -517,8 +542,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -534,8 +562,11 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -551,8 +582,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -567,6 +601,9 @@
       </c>
       <c r="E8">
         <v>2</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C8326C-33A2-42FB-8150-C47BCB61B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485A7CD-EFE1-4AF7-9DF1-115A684E6BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="5460" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,85 +528,88 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>8000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>10</v>
-      </c>
-      <c r="C7">
-        <v>50000</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F8">
+    <sortCondition ref="E4:E8"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/FamilyInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485A7CD-EFE1-4AF7-9DF1-115A684E6BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000CCAC-EACD-49D4-8A1F-CF04EF67BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族2</t>
-  </si>
-  <si>
-    <t>家族3</t>
-  </si>
-  <si>
-    <t>家族4</t>
-  </si>
-  <si>
-    <t>家族5</t>
   </si>
   <si>
     <t>家族财富</t>
@@ -432,183 +405,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6">
+        <v>12000</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>50000</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
         <v>8000</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8">
-        <v>12000</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F8">
-    <sortCondition ref="E4:E8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E8">
+    <sortCondition ref="A4:A8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
